--- a/biology/Zoologie/Hydrophis_belcheri/Hydrophis_belcheri.xlsx
+++ b/biology/Zoologie/Hydrophis_belcheri/Hydrophis_belcheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis belcheri ou Serpent de Belcher ou Hydrophide de Belcher est une espèce de serpents marins de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis belcheri ou Serpent de Belcher ou Hydrophide de Belcher est une espèce de serpents marins de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'océan Pacifique occidental dans les eaux des Philippines, du Viêt Nam, de Thaïlande, d'Indonésie, de Papouasie-Nouvelle-Guinée et des Salomon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'océan Pacifique occidental dans les eaux des Philippines, du Viêt Nam, de Thaïlande, d'Indonésie, de Papouasie-Nouvelle-Guinée et des Salomon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent assez rare mesure moins d'1 m. Son corps est jaunâtre à gris avec de 52 à 70 barres plus sombres[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent assez rare mesure moins d'1 m. Son corps est jaunâtre à gris avec de 52 à 70 barres plus sombres.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Venimosité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le venin de ce serpent est considéré comme un des plus toxiques[3]. Sa dose létale médiane (DL50) en intramusculaire est évaluée entre 0,07 et 0,25 mg/kg[4],[5]. C'est principalement un neurotoxique mais ses effets sur l'homme sont encore à l'étude, on note des effets variables comme des maux de tête, nausées, vomissements, douleurs abdominales, diarrhées, évanouissements, convulsions, mais un empoisonnement général avec paralysie respiratoire n'est pas à exclure[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le venin de ce serpent est considéré comme un des plus toxiques. Sa dose létale médiane (DL50) en intramusculaire est évaluée entre 0,07 et 0,25 mg/kg,. C'est principalement un neurotoxique mais ses effets sur l'homme sont encore à l'étude, on note des effets variables comme des maux de tête, nausées, vomissements, douleurs abdominales, diarrhées, évanouissements, convulsions, mais un empoisonnement général avec paralysie respiratoire n'est pas à exclure.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Belcher[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Belcher.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1849 : Catalogue of the specimens of snakes in the collection of the British Museum, London, p. 1-125 (texte intégral).</t>
         </is>
